--- a/sql_scripts/estblaishment/establishments normalized vs unnormalized.xlsx
+++ b/sql_scripts/estblaishment/establishments normalized vs unnormalized.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\school\2ndyr\2ndsem\ddb\midterm\university_proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\university\sql_scripts\estblaishment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F682DF0-28B3-42A8-8947-F69A3B36E52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89EE799-DF83-4FBF-9863-D27F38C91DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{09683CDB-3E91-4808-912C-2C2C5A064805}"/>
+    <workbookView xWindow="5760" yWindow="1884" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{09683CDB-3E91-4808-912C-2C2C5A064805}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -1142,7 +1143,7 @@
   <dimension ref="B2:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1347,4 +1348,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AD56C5-6641-4260-924A-3DFD0EC22D62}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="B4:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>